--- a/text_recipe_file.xlsx
+++ b/text_recipe_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F385CB-DE5D-4E55-B802-F98FC3A8302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35917F60-83C6-4555-A325-A47EA7045C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="9765" windowWidth="16080" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19335" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="16">
   <si>
     <t>Pump 1</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Start initial fill with reaction solution</t>
   </si>
   <si>
     <t>Pump 3</t>
@@ -54,13 +51,7 @@
     <t>Off</t>
   </si>
   <si>
-    <t>On</t>
-  </si>
-  <si>
     <t>CW</t>
-  </si>
-  <si>
-    <t>For testing</t>
   </si>
   <si>
     <t>Time point (min)</t>
@@ -75,10 +66,13 @@
     <t>off</t>
   </si>
   <si>
-    <t>CCW</t>
+    <t>ccw</t>
   </si>
   <si>
-    <t>ccw</t>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -399,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +409,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -424,16 +418,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -443,100 +437,1220 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>17.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>19.5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22.5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>23.5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>24.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>26.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>27.5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>28.5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>29.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
